--- a/Week4/Day1/Day1-excel-schillaci.xlsx
+++ b/Week4/Day1/Day1-excel-schillaci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppe/Documents/GitHub/epicode-data-analyst/Week4/Day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC21CD1-B050-BD47-B196-AA28B9207D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411B76B-BE4B-014D-8D52-5682B49FBA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{06F27914-2FA5-6743-A1C9-BF26F1409FA6}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16340" xr2:uid="{06F27914-2FA5-6743-A1C9-BF26F1409FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sol-Esercizio1-giorni" sheetId="2" r:id="rId1"/>
@@ -915,7 +915,7 @@
   <dimension ref="A2:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,11 +976,11 @@
         <v>2300</v>
       </c>
       <c r="G3" s="11">
-        <f>SUM(C3:E3)</f>
+        <f>C3+D3+E3</f>
         <v>8470</v>
       </c>
       <c r="H3" s="11">
-        <f>AVERAGE(C3:E3)</f>
+        <f>G3/3</f>
         <v>2823.3333333333335</v>
       </c>
     </row>
@@ -998,11 +998,11 @@
         <v>2600</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" ref="G4:G7" si="0">SUM(C4:E4)</f>
+        <f t="shared" ref="G4:G14" si="0">C4+D4+E4</f>
         <v>8260</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H6" si="1">AVERAGE(C4:E4)</f>
+        <f t="shared" ref="H4:H14" si="1">G4/3</f>
         <v>2753.3333333333335</v>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>8161</v>
       </c>
       <c r="H7" s="11">
-        <f>AVERAGE(C7:E7)</f>
+        <f t="shared" si="1"/>
         <v>2720.3333333333335</v>
       </c>
     </row>

--- a/Week4/Day1/Day1-excel-schillaci.xlsx
+++ b/Week4/Day1/Day1-excel-schillaci.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppe/Documents/GitHub/epicode-data-analyst/Week4/Day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411B76B-BE4B-014D-8D52-5682B49FBA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C11E9EC-C680-A349-8D25-2470F0B455EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16340" xr2:uid="{06F27914-2FA5-6743-A1C9-BF26F1409FA6}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16340" activeTab="3" xr2:uid="{06F27914-2FA5-6743-A1C9-BF26F1409FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sol-Esercizio1-giorni" sheetId="2" r:id="rId1"/>
     <sheet name="Sol-Esercizio2-email" sheetId="1" r:id="rId2"/>
     <sheet name="Ese-funzioni-se-somma-media" sheetId="3" r:id="rId3"/>
     <sheet name="Ese-funzioni-sost-conc" sheetId="4" r:id="rId4"/>
-    <sheet name="esempi-slides" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t>Cognome</t>
   </si>
@@ -199,24 +198,6 @@
   </si>
   <si>
     <t>Concatena e scrivi a capo</t>
-  </si>
-  <si>
-    <t>somma(b2:b5)</t>
-  </si>
-  <si>
-    <t>somma b2 b5 b8</t>
-  </si>
-  <si>
-    <t>somma da b2 b5 e da b7 a b9</t>
-  </si>
-  <si>
-    <t>calcola media intervallo b2 e b5</t>
-  </si>
-  <si>
-    <t>calcola media intervallo b2 e b5 e b7</t>
-  </si>
-  <si>
-    <t>Esempio Somma e Media per intervalli</t>
   </si>
   <si>
     <t>Sostituisci la città con le prime due lettera della città in minuscolo</t>
@@ -914,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF9D8D8-827C-2F45-819F-A1416E26FF88}">
   <dimension ref="A2:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2222,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228AC95C-2B9B-044A-9F32-14B005CE5371}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,7 +2239,7 @@
         <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="30"/>
     </row>
@@ -2602,94 +2583,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D02263C-6600-7345-AFF9-5D07F5D0D6F2}">
-  <dimension ref="B1:D9"/>
-  <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <f>SUM(B2:B5)</f>
-        <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <f>B2+B5+B8</f>
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <f>SUM(B2:B5,B7:B9)</f>
-        <v>215</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>66</v>
-      </c>
-      <c r="C5">
-        <f>AVERAGE(B2:B5)</f>
-        <v>33.5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <f>AVERAGE(B2:B5,B7)</f>
-        <v>29.2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>